--- a/A2/cost_estimate_sheet.xlsx
+++ b/A2/cost_estimate_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kchee\OneDrive\Documents\College Classes\EAE 130\SunGoldSkies\A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA6B8165-EBCB-4F15-83F0-0F16E6B0B79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A669159D-1579-4E27-92FD-2B657AD2C10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{94AEB65A-5A8C-4845-A006-97E3BD2A6FBE}"/>
+    <workbookView xWindow="13860" yWindow="360" windowWidth="14490" windowHeight="15120" xr2:uid="{94AEB65A-5A8C-4845-A006-97E3BD2A6FBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,13 +497,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -520,13 +520,13 @@
         <v>0.95</v>
       </c>
       <c r="E3">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -543,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -566,13 +566,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -635,13 +635,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/A2/cost_estimate_sheet.xlsx
+++ b/A2/cost_estimate_sheet.xlsx
@@ -1,101 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kchee\OneDrive\Documents\College Classes\EAE 130\SunGoldSkies\A2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A669159D-1579-4E27-92FD-2B657AD2C10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="360" windowWidth="14490" windowHeight="15120" xr2:uid="{94AEB65A-5A8C-4845-A006-97E3BD2A6FBE}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="150" yWindow="360" windowWidth="14490" windowHeight="15120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>CER Category</t>
-  </si>
-  <si>
-    <t>Engineering Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tooling Cost </t>
-  </si>
-  <si>
-    <t>Manufacturing Cost</t>
-  </si>
-  <si>
-    <t>Development Support Cost</t>
-  </si>
-  <si>
-    <t>Flight Test Support Cost</t>
-  </si>
-  <si>
-    <t>Quality Control Cost</t>
-  </si>
-  <si>
-    <t>Materials Cost</t>
-  </si>
-  <si>
-    <t>F_cert</t>
-  </si>
-  <si>
-    <t>F_taper</t>
-  </si>
-  <si>
-    <t>F_cf</t>
-  </si>
-  <si>
-    <t>F_press</t>
-  </si>
-  <si>
-    <t>F_hye</t>
-  </si>
-  <si>
-    <t>F_comp</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -114,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -448,200 +439,659 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9368B031-61A8-46B3-BA64-4A5A3468D518}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col width="29.42578125" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Max Takeoff Weight (lbs)</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Empty Weight (lbs)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Airframe Weight (lbs)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Battery Weight (kg)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Max Velocity (ktas)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Number of Aircraft Produced in 5 Years</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Number of Aircraft Produced in 1 Month</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Base Year</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Then Year</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Number of Motors</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Electric Motor Power (hp)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Electric Motor Power Total (hp)</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Battery Capacity (kWh)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Battery Specific Energy (Wh/kg)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Price of Electricity ($/kWh)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Number of Propellers</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Propeller Diameter (ft)</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Shaft Horsepower (shp)</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Maintenaince Labor Rate ($/hr)</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Mission Block Time (hr)</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Hull Insurance Rate</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Aircraft Residual Value Factor</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Number of Years Aircraft is Used</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CER Category</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>F_cert</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>F_comp</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>F_taper</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>F_cf</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>F_press</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>F_hye</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Engineering Cost</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>0.67</v>
       </c>
-      <c r="C2">
+      <c r="C26" t="n">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tooling Cost </t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
+      <c r="D27" t="n">
         <v>0.95</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Manufacturing Cost</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>0.75</v>
       </c>
-      <c r="C4">
+      <c r="C28" t="n">
         <v>1.25</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Development Support Cost</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
         <v>0.5</v>
       </c>
-      <c r="C5">
+      <c r="C29" t="n">
         <v>1.5</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Flight Test Support Cost</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Quality Control Cost</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
         <v>0.5</v>
       </c>
-      <c r="C7">
+      <c r="C31" t="n">
         <v>1.5</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Materials Cost</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
         <v>0.75</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Outputs: (Cost per Airplane)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Engineering Cost</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>82087.02920031415</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tooling Cost </t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>116241.683717482</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Manufacturing Cost</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>427035.185671853</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Development Support Cost</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>7371.555995464751</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Flight Test Support Cost</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>112374.6405501514</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Quality Control Cost</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>41635.93060300566</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Materials Cost</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>16677.54952899485</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Electric Motor Cost</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Power Management System Cost</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Battery Cost</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>11.11111111111111</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Propeller Cost</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>23.0696237434646</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Landing Gear Cost</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-7500</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Avionics Cost</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Total Cost to Produce</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>800623.7560021203</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>10% Profit</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>80062.37560021204</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Total Sales Price</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>880686.1316023323</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>COC</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>21396.09453094752</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>FOC</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>4243.263261022378</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>DOC</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>25639.3577919699</v>
       </c>
     </row>
   </sheetData>
